--- a/Data/processed/primera_aplicacion/pruebas_pre_post.xlsx
+++ b/Data/processed/primera_aplicacion/pruebas_pre_post.xlsx
@@ -295,16 +295,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8379893576586849</v>
+        <v>0.8379629629629629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.779133409350057</v>
+        <v>0.7794784580498866</v>
       </c>
       <c r="D10" t="n">
-        <v>9.776221510432088E-18</v>
+        <v>2.3375088690579253E-17</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2987447122388639</v>
+        <v>-0.29726700279176943</v>
       </c>
     </row>
     <row r="11">
@@ -312,16 +312,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9007981755986317</v>
+        <v>0.9010770975056689</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8741923223109084</v>
+        <v>0.8749055177626606</v>
       </c>
       <c r="D11" t="n">
-        <v>1.1980179217278895E-4</v>
+        <v>1.1509503624562699E-4</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.11349719830118826</v>
+        <v>-0.11184982689738887</v>
       </c>
     </row>
     <row r="12">
@@ -329,16 +329,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22120866590649943</v>
+        <v>0.2213718820861678</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2930444697833523</v>
+        <v>0.2932728647014361</v>
       </c>
       <c r="D12" t="n">
-        <v>3.536948796393704E-8</v>
+        <v>3.6224168906201264E-8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25806152801538274</v>
+        <v>0.25814548047307634</v>
       </c>
     </row>
     <row r="13">
@@ -346,16 +346,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.20125427594070697</v>
+        <v>0.20238095238095238</v>
       </c>
       <c r="C13" t="n">
-        <v>0.31185860889395667</v>
+        <v>0.31179138321995464</v>
       </c>
       <c r="D13" t="n">
-        <v>3.1883161166589734E-13</v>
+        <v>7.077800967735465E-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0.33743934149424853</v>
+        <v>0.33325338135384214</v>
       </c>
     </row>
     <row r="14">
@@ -363,16 +363,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8700114025085519</v>
+        <v>0.8707482993197279</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8358038768529077</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="D14" t="n">
-        <v>0.008580942183215022</v>
+        <v>0.00806721692529965</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.11681300026426394</v>
+        <v>-0.11639040802805356</v>
       </c>
     </row>
     <row r="15">
@@ -380,16 +380,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6450966850828729</v>
+        <v>0.6447985651214128</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6782458563535911</v>
+        <v>0.6777731788079471</v>
       </c>
       <c r="D15" t="n">
-        <v>2.1589686710969195E-4</v>
+        <v>2.1794168642049833E-4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.14915375941334266</v>
+        <v>0.1482634826988836</v>
       </c>
     </row>
     <row r="16">
